--- a/backend/faktura/assets/GLN til blodfakturering.xlsx
+++ b/backend/faktura/assets/GLN til blodfakturering.xlsx
@@ -161,9 +161,6 @@
     <t>LAKUT1</t>
   </si>
   <si>
-    <t>Bispebjerg</t>
-  </si>
-  <si>
     <t>L4Name</t>
   </si>
   <si>
@@ -489,6 +486,9 @@
   </si>
   <si>
     <t>Hospitalerne i Nordsjælland afregnes på samme GLN 5798001068154</t>
+  </si>
+  <si>
+    <t>Bispebjerg og Frederiksberg Hospitaler</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +554,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -599,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -622,6 +628,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -929,7 +936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -939,13 +946,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" style="11" customWidth="1"/>
     <col min="3" max="3" width="41.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
@@ -953,24 +960,24 @@
   <sheetData>
     <row r="3" spans="1:4" s="3" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>46</v>
+      <c r="A4" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -980,11 +987,11 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>46</v>
+      <c r="A5" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -994,11 +1001,11 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>46</v>
+      <c r="A6" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1008,11 +1015,11 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>46</v>
+      <c r="A7" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -1022,11 +1029,11 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>46</v>
+      <c r="A8" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -1036,11 +1043,11 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>46</v>
+      <c r="A9" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1050,11 +1057,11 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>46</v>
+      <c r="A10" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1064,11 +1071,11 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>46</v>
+      <c r="A11" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1078,11 +1085,11 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>46</v>
+      <c r="A12" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1092,11 +1099,11 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>46</v>
+      <c r="A13" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1106,11 +1113,11 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>46</v>
+      <c r="A14" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -1120,11 +1127,11 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>46</v>
+      <c r="A15" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1134,11 +1141,11 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>46</v>
+      <c r="A16" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1148,11 +1155,11 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>46</v>
+      <c r="A17" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1162,11 +1169,11 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>46</v>
+      <c r="A18" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1176,11 +1183,11 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>46</v>
+      <c r="A19" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1190,11 +1197,11 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>46</v>
+      <c r="A20" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1204,11 +1211,11 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>46</v>
+      <c r="A21" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1218,11 +1225,11 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>46</v>
+      <c r="A22" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -1232,11 +1239,11 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>46</v>
+      <c r="A23" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
@@ -1246,11 +1253,11 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>46</v>
+      <c r="A24" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
@@ -1260,11 +1267,11 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>46</v>
+      <c r="A25" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
@@ -1274,11 +1281,11 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>46</v>
+      <c r="A26" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -1288,11 +1295,11 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>46</v>
+      <c r="A27" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -1302,11 +1309,11 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>46</v>
+      <c r="A28" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
@@ -1316,11 +1323,11 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>46</v>
+      <c r="A29" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
@@ -1330,11 +1337,11 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>46</v>
+      <c r="A30" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -1344,11 +1351,11 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>46</v>
+      <c r="A31" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -1358,11 +1365,11 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>46</v>
+      <c r="A32" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -1372,11 +1379,11 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>46</v>
+      <c r="A33" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -1386,11 +1393,11 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>46</v>
+      <c r="A34" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
         <v>30</v>
@@ -1400,11 +1407,11 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>46</v>
+      <c r="A35" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
@@ -1414,11 +1421,11 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>46</v>
+      <c r="A36" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
@@ -1428,11 +1435,11 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>46</v>
+      <c r="A37" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
@@ -1442,11 +1449,11 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>46</v>
+      <c r="A38" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
@@ -1456,11 +1463,11 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>46</v>
+      <c r="A39" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
@@ -1470,11 +1477,11 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>46</v>
+      <c r="A40" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
@@ -1484,11 +1491,11 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>46</v>
+      <c r="A41" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -1498,11 +1505,11 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>46</v>
+      <c r="A42" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -1512,11 +1519,11 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>46</v>
+      <c r="A43" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
         <v>39</v>
@@ -1526,11 +1533,11 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>46</v>
+      <c r="A44" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
         <v>40</v>
@@ -1540,11 +1547,11 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>46</v>
+      <c r="A45" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
         <v>41</v>
@@ -1554,11 +1561,11 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>46</v>
+      <c r="A46" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
         <v>42</v>
@@ -1568,11 +1575,11 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>46</v>
+      <c r="A47" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>43</v>
@@ -1582,11 +1589,11 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>46</v>
+      <c r="A48" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
         <v>44</v>
@@ -1596,11 +1603,11 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>46</v>
+      <c r="A49" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>45</v>
@@ -1611,24 +1618,24 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D50" s="1">
         <v>5798009960429</v>
       </c>
       <c r="E50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1">
         <v>5798001558051</v>
@@ -1636,13 +1643,13 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" s="1">
         <v>5798001558204</v>
@@ -1650,13 +1657,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="1">
         <v>5798001498951</v>
@@ -1664,13 +1671,13 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D54" s="1">
         <v>5798001557801</v>
@@ -1678,13 +1685,13 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" s="1">
         <v>5798001557726</v>
@@ -1692,13 +1699,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56" s="1">
         <v>5798001556903</v>
@@ -1706,13 +1713,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D57" s="1">
         <v>5798001556804</v>
@@ -1720,13 +1727,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" s="1">
         <v>5798001558105</v>
@@ -1734,13 +1741,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" s="1">
         <v>5798001557207</v>
@@ -1748,13 +1755,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D60" s="1">
         <v>5798001504713</v>
@@ -1762,13 +1769,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D61" s="1">
         <v>5798001558402</v>
@@ -1776,13 +1783,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D62" s="1">
         <v>5798001503648</v>
@@ -1790,13 +1797,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D63" s="1">
         <v>5798001505222</v>
@@ -1804,13 +1811,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D64" s="1">
         <v>5798001557856</v>
@@ -1818,13 +1825,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D65" s="1">
         <v>5798001557306</v>
@@ -1832,13 +1839,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D66" s="1">
         <v>5798001557931</v>
@@ -1846,13 +1853,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D67" s="1">
         <v>5798001557405</v>
@@ -1860,13 +1867,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D68" s="1">
         <v>5798001557504</v>
@@ -1874,13 +1881,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D69" s="1">
         <v>5798001557603</v>
@@ -1888,13 +1895,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D70" s="1">
         <v>5798001557009</v>
@@ -1902,13 +1909,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D71" s="1">
         <v>5798001502092</v>
@@ -1916,13 +1923,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D72" s="10">
         <v>5798001025805</v>
@@ -1930,13 +1937,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D73" s="10">
         <v>5798001025805</v>
@@ -1944,13 +1951,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D74" s="10">
         <v>5798001025997</v>
@@ -1958,13 +1965,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D75" s="10">
         <v>5798001025997</v>
@@ -1972,10 +1979,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C76" s="7">
         <v>219</v>
@@ -1986,10 +1993,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" s="7">
         <v>257</v>
@@ -2000,13 +2007,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D78" s="10">
         <v>5798001025997</v>
@@ -2014,13 +2021,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D79" s="10">
         <v>5798001025997</v>
@@ -2028,13 +2035,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D80" s="10">
         <v>5798001025805</v>
@@ -2042,13 +2049,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D81" s="10">
         <v>5798001025805</v>
@@ -2056,13 +2063,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D82" s="10">
         <v>5798001025997</v>
@@ -2070,13 +2077,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83" s="10">
         <v>5798001025997</v>
@@ -2084,13 +2091,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D84" s="10">
         <v>5798001025799</v>
@@ -2098,13 +2105,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D85" s="10">
         <v>5798001025843</v>
@@ -2112,13 +2119,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D86" s="10">
         <v>5798001025843</v>
@@ -2126,13 +2133,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D87" s="10">
         <v>5798001025843</v>
@@ -2140,13 +2147,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D88" s="10">
         <v>5798001025829</v>
@@ -2154,13 +2161,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D89" s="10">
         <v>5798001025881</v>
@@ -2168,13 +2175,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D90" s="10">
         <v>5798001025799</v>
@@ -2182,13 +2189,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D91" s="10">
         <v>5798001025744</v>
@@ -2196,13 +2203,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D92" s="10">
         <v>5798001025775</v>
@@ -2210,13 +2217,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D93" s="10">
         <v>5798001025874</v>
@@ -2224,13 +2231,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D94" s="10">
         <v>5798001025843</v>
@@ -2238,13 +2245,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D95" s="10">
         <v>5798001025843</v>
@@ -2252,13 +2259,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D96" s="10">
         <v>5798001025843</v>
@@ -2266,13 +2273,13 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D97" s="10">
         <v>5798001025843</v>
@@ -2280,13 +2287,13 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D98" s="10">
         <v>5798001025997</v>
@@ -2294,13 +2301,13 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D99" s="10">
         <v>5798001557306</v>
@@ -2308,13 +2315,13 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D100" s="10">
         <v>5798001025782</v>
@@ -2322,13 +2329,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D101" s="10">
         <v>5798001025805</v>
@@ -2336,13 +2343,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D102" s="10">
         <v>5798001025805</v>
@@ -2350,24 +2357,24 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
+        <v>149</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" t="s">
         <v>150</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C103" t="s">
-        <v>151</v>
       </c>
       <c r="D103" s="1">
         <v>5798001026031</v>
       </c>
       <c r="E103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D104" s="1">
         <v>5798001068154</v>
@@ -2386,7 +2393,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2399,31 +2406,31 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="6"/>
       <c r="C6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="4">
         <v>901363</v>
@@ -2434,34 +2441,34 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="9"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2488,260 +2495,260 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
